--- a/app/webroot/img/著作権管理.xlsx
+++ b/app/webroot/img/著作権管理.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
+  <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="13995" windowHeight="8715"/>
+    <workbookView xWindow="360" yWindow="140" windowWidth="14000" windowHeight="8720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>ファイル名</t>
     <rPh sb="4" eb="5">
@@ -73,12 +78,18 @@
     <t>SengiraDesgin</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>Glyphicons</t>
+  </si>
+  <si>
+    <t>http://glyphicons.com/</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,6 +120,11 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="36"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica Neue"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -135,7 +151,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -143,6 +159,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -480,24 +499,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
+  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="39.625" customWidth="1"/>
-    <col min="2" max="2" width="26.375" customWidth="1"/>
-    <col min="3" max="3" width="55.375" customWidth="1"/>
-    <col min="4" max="4" width="39.375" customWidth="1"/>
-    <col min="5" max="5" width="30.75" customWidth="1"/>
+    <col min="1" max="1" width="39.6640625" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" customWidth="1"/>
+    <col min="3" max="3" width="55.33203125" customWidth="1"/>
+    <col min="4" max="4" width="39.33203125" customWidth="1"/>
+    <col min="5" max="5" width="30.6640625" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="31.5" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -517,7 +536,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="60" customHeight="1">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -531,82 +550,88 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="43">
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6">
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6">
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6">
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6">
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6">
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6">
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6">
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6">
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6">
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6">
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6">
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6">
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="5:5">
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="5:5">
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="5:5">
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="5:5">
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="5:5">
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="5:5">
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="23" spans="5:5">
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="24" spans="5:5">
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="25" spans="5:5">
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="26" spans="5:5">
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="27" spans="5:5">
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="28" spans="5:5">
       <c r="E28" s="2"/>
     </row>
   </sheetData>
@@ -615,37 +640,52 @@
     <hyperlink ref="C2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2"/>
+  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3"/>
+  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>